--- a/Projeto/Ex_dCadprod.xlsx
+++ b/Projeto/Ex_dCadprod.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cintya.Cortes\Documents\python\curso-python\CursoPythonFarmax\0 - Projeto_Brindes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cintya.Cortes\Documents\python\python\Projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D42C30-D21F-4AB3-988C-6A070B569288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{831E7777-ABA9-4F9B-ABA2-0DB62AA4358D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B63DBAD6-F950-4DCA-8CA2-54004BA61358}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   </externalReferences>
   <definedNames>
     <definedName name="_Fill" hidden="1">#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Cadprod - Sanavita'!$A$1:$D$289</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Cadprod - Sanavita'!$A$1:$D$354</definedName>
     <definedName name="a">#REF!</definedName>
     <definedName name="aa">#REF!</definedName>
     <definedName name="aaa" hidden="1">{#N/A,#N/A,FALSE,"Aging Summary";#N/A,#N/A,FALSE,"Ratio Analysis";#N/A,#N/A,FALSE,"Test 120 Day Accts";#N/A,#N/A,FALSE,"Tickmarks"}</definedName>
@@ -2209,7 +2209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="404">
   <si>
     <t>AJUSTE SANAVITA</t>
   </si>
@@ -3421,9 +3421,6 @@
   </si>
   <si>
     <t>nivel_2</t>
-  </si>
-  <si>
-    <t>ESPORTE  FITNESS</t>
   </si>
 </sst>
 </file>
@@ -4053,7 +4050,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G36" sqref="G36"/>
+      <selection pane="bottomLeft" activeCell="C30" sqref="C30:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4704,7 +4701,7 @@
         <v>43</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>404</v>
+        <v>13</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>44</v>
@@ -4718,7 +4715,7 @@
         <v>45</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>404</v>
+        <v>13</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>44</v>
@@ -4732,7 +4729,7 @@
         <v>46</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>404</v>
+        <v>13</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>44</v>
@@ -4746,7 +4743,7 @@
         <v>47</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>404</v>
+        <v>13</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>48</v>
@@ -9023,7 +9020,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D289" xr:uid="{243B9DE4-0166-4D72-8C0C-11D5B319A765}"/>
+  <autoFilter ref="A1:D354" xr:uid="{243B9DE4-0166-4D72-8C0C-11D5B319A765}"/>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
@@ -9041,6 +9038,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="584dc9ff-b79f-4cb1-b1a1-0116c0c4105e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="16c2fb76-5d16-49ca-a9b0-a06cb6d01ceb" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100197E7CC635444F4FA4AD1C3FE876D7F6" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3f490174a798c170e063de97ead128ba">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="584dc9ff-b79f-4cb1-b1a1-0116c0c4105e" xmlns:ns3="16c2fb76-5d16-49ca-a9b0-a06cb6d01ceb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4388a6884c8e25de2beada09b36f0f56" ns2:_="" ns3:_="">
     <xsd:import namespace="584dc9ff-b79f-4cb1-b1a1-0116c0c4105e"/>
@@ -9275,17 +9283,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="584dc9ff-b79f-4cb1-b1a1-0116c0c4105e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="16c2fb76-5d16-49ca-a9b0-a06cb6d01ceb" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{237E009A-C60D-434D-9EB1-5244B748B683}">
   <ds:schemaRefs>
@@ -9295,6 +9292,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2F9CEF4-EEC6-402B-AFD0-5B216E1865F8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="16c2fb76-5d16-49ca-a9b0-a06cb6d01ceb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="584dc9ff-b79f-4cb1-b1a1-0116c0c4105e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24AA188C-FD87-4CC1-8A74-C9E7583B8BB2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9311,21 +9325,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2F9CEF4-EEC6-402B-AFD0-5B216E1865F8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="16c2fb76-5d16-49ca-a9b0-a06cb6d01ceb"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="584dc9ff-b79f-4cb1-b1a1-0116c0c4105e"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>